--- a/Input/Quotes.xlsx
+++ b/Input/Quotes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Item No</t>
   </si>
@@ -381,6 +381,34 @@
         <v>1100.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1101.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1101.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
